--- a/customers_table.xlsx
+++ b/customers_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/themba/Documents/Data_Analytics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/themba/Documents/Data_Analytics/Data-Science-Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5B75A4-D105-4F4C-BB31-E89071E1431C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC132C2-F205-0B46-8841-2F3930F6A065}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{4E795446-83F0-CD4A-937C-3D8C6BA493FA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{4E795446-83F0-CD4A-937C-3D8C6BA493FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="209">
   <si>
     <t>id</t>
   </si>
@@ -53,9 +48,6 @@
     <t>comm_channel</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
@@ -519,9 +511,6 @@
   </si>
   <si>
     <t>(021) 716-9174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
   </si>
   <si>
     <t>call</t>
@@ -719,9 +708,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1127740E-08A0-5644-A2F2-5E31F3C5EB46}" name="Table1" displayName="Table1" ref="A1:L31" totalsRowShown="0">
-  <autoFilter ref="A1:L31" xr:uid="{A1EB84C3-52DF-DC4F-AEA3-6BDCA41D26A0}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1127740E-08A0-5644-A2F2-5E31F3C5EB46}" name="Table1" displayName="Table1" ref="A1:K31" totalsRowShown="0">
+  <autoFilter ref="A1:K31" xr:uid="{A1EB84C3-52DF-DC4F-AEA3-6BDCA41D26A0}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{07378313-137F-D44D-95E1-D1E3F225080A}" name="id"/>
     <tableColumn id="2" xr3:uid="{01ED0F15-F31D-CC44-B66E-659941587B5C}" name="name"/>
     <tableColumn id="3" xr3:uid="{CD72743A-7611-E344-A2CC-4CBD46113468}" name="surname"/>
@@ -729,7 +718,6 @@
     <tableColumn id="5" xr3:uid="{EE44ECD8-3E50-6F47-AD30-30787F751BC0}" name="landline"/>
     <tableColumn id="6" xr3:uid="{DFC7A8C6-3D3F-E741-8CF2-7C5568011AB3}" name="email"/>
     <tableColumn id="7" xr3:uid="{F6AD0EE0-D46A-BD4A-8D1B-6E21C5FED6F4}" name="comm_channel"/>
-    <tableColumn id="8" xr3:uid="{8532B47D-43CE-5546-B5F7-797D26FDC0E3}" name="address"/>
     <tableColumn id="9" xr3:uid="{0ED0CFE8-669A-254B-A8CB-883BC708B34D}" name="region"/>
     <tableColumn id="10" xr3:uid="{DEBB372D-E9D8-3D43-AF01-2DEB8768A6E1}" name="gender"/>
     <tableColumn id="11" xr3:uid="{C8CCBEBE-A6F1-9348-82F4-FF508827F9A0}" name="reg_date"/>
@@ -1036,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48084B83-A4AD-ED4B-9A6D-FAF5CB183135}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1053,7 +1041,7 @@
     <col min="11" max="11" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1087,1060 +1075,1054 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>103</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>133</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="G3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" t="s">
         <v>175</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J4" t="s">
         <v>181</v>
       </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="K4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>105</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>135</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K4" t="s">
-        <v>183</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
+      <c r="H5" t="s">
+        <v>166</v>
+      </c>
       <c r="I5" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="J5" t="s">
-        <v>178</v>
-      </c>
-      <c r="K5" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J7" t="s">
         <v>184</v>
       </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K6" t="s">
-        <v>185</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="K7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>108</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>138</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>78</v>
       </c>
-      <c r="G7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" t="s">
-        <v>79</v>
-      </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="H8" t="s">
+        <v>172</v>
       </c>
       <c r="I8" t="s">
         <v>174</v>
       </c>
       <c r="J8" t="s">
-        <v>176</v>
-      </c>
-      <c r="K8" t="s">
-        <v>187</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
       </c>
+      <c r="H9" t="s">
+        <v>172</v>
+      </c>
       <c r="I9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J9" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" t="s">
         <v>174</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" t="s">
         <v>175</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J11" t="s">
         <v>188</v>
       </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" t="s">
-        <v>164</v>
-      </c>
-      <c r="I10" t="s">
-        <v>171</v>
-      </c>
-      <c r="J10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="K11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" t="s">
         <v>189</v>
       </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="K12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" t="s">
         <v>165</v>
       </c>
-      <c r="I11" t="s">
-        <v>167</v>
-      </c>
-      <c r="J11" t="s">
-        <v>177</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="I13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" t="s">
         <v>190</v>
       </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H12" t="s">
-        <v>163</v>
-      </c>
-      <c r="I12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J12" t="s">
-        <v>179</v>
-      </c>
-      <c r="K12" t="s">
-        <v>191</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="K13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>114</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>144</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>84</v>
-      </c>
-      <c r="G13" t="s">
-        <v>164</v>
-      </c>
-      <c r="I13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" t="s">
-        <v>176</v>
-      </c>
-      <c r="K13" t="s">
-        <v>192</v>
-      </c>
-      <c r="L13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" t="s">
-        <v>85</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
       </c>
+      <c r="H14" t="s">
+        <v>166</v>
+      </c>
       <c r="I14" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J15" t="s">
+        <v>192</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" t="s">
         <v>168</v>
       </c>
-      <c r="J14" t="s">
-        <v>176</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="I16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" t="s">
         <v>193</v>
       </c>
-      <c r="L14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="K16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" t="s">
         <v>165</v>
       </c>
-      <c r="I15" t="s">
-        <v>173</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>194</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>195</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" t="s">
         <v>177</v>
       </c>
-      <c r="K15" t="s">
-        <v>194</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I16" t="s">
-        <v>170</v>
-      </c>
-      <c r="J16" t="s">
-        <v>179</v>
-      </c>
-      <c r="K16" t="s">
-        <v>195</v>
-      </c>
-      <c r="L16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" t="s">
-        <v>167</v>
-      </c>
-      <c r="J17" t="s">
-        <v>176</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J19" t="s">
         <v>196</v>
       </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" t="s">
-        <v>165</v>
-      </c>
-      <c r="I18" t="s">
-        <v>167</v>
-      </c>
-      <c r="J18" t="s">
-        <v>177</v>
-      </c>
-      <c r="K18" t="s">
-        <v>197</v>
-      </c>
-      <c r="L18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="K19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>120</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>150</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>90</v>
-      </c>
-      <c r="G19" t="s">
-        <v>164</v>
-      </c>
-      <c r="I19" t="s">
-        <v>168</v>
-      </c>
-      <c r="J19" t="s">
-        <v>179</v>
-      </c>
-      <c r="K19" t="s">
-        <v>198</v>
-      </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" t="s">
-        <v>91</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
+      <c r="H20" t="s">
+        <v>169</v>
+      </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
-      </c>
-      <c r="K20" t="s">
-        <v>199</v>
-      </c>
-      <c r="L20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
       </c>
+      <c r="H21" t="s">
+        <v>166</v>
+      </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
-      </c>
-      <c r="K21" t="s">
-        <v>200</v>
-      </c>
-      <c r="L21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
       </c>
+      <c r="H22" t="s">
+        <v>164</v>
+      </c>
       <c r="I22" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
-      </c>
-      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" t="s">
         <v>201</v>
       </c>
-      <c r="L22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>164</v>
-      </c>
-      <c r="I23" t="s">
-        <v>174</v>
-      </c>
-      <c r="J23" t="s">
-        <v>180</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="K24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" t="s">
         <v>202</v>
       </c>
-      <c r="L23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" t="s">
-        <v>165</v>
-      </c>
-      <c r="I24" t="s">
-        <v>170</v>
-      </c>
-      <c r="J24" t="s">
-        <v>179</v>
-      </c>
-      <c r="K24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="K25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>66</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>126</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>156</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>96</v>
-      </c>
-      <c r="G25" t="s">
-        <v>165</v>
-      </c>
-      <c r="I25" t="s">
-        <v>172</v>
-      </c>
-      <c r="J25" t="s">
-        <v>180</v>
-      </c>
-      <c r="K25" t="s">
-        <v>204</v>
-      </c>
-      <c r="L25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" t="s">
-        <v>97</v>
       </c>
       <c r="G26" t="s">
         <v>5</v>
       </c>
+      <c r="H26" t="s">
+        <v>172</v>
+      </c>
       <c r="I26" t="s">
+        <v>178</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" t="s">
+        <v>163</v>
+      </c>
+      <c r="H27" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27" t="s">
+        <v>178</v>
+      </c>
+      <c r="J27" t="s">
+        <v>204</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" t="s">
+        <v>166</v>
+      </c>
+      <c r="I29" t="s">
         <v>174</v>
       </c>
-      <c r="J26" t="s">
-        <v>180</v>
-      </c>
-      <c r="K26" t="s">
-        <v>205</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" t="s">
-        <v>172</v>
-      </c>
-      <c r="J27" t="s">
-        <v>180</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="J29" t="s">
         <v>206</v>
       </c>
-      <c r="L27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" t="s">
-        <v>159</v>
-      </c>
-      <c r="F28" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" t="s">
-        <v>167</v>
-      </c>
-      <c r="J28" t="s">
-        <v>179</v>
-      </c>
-      <c r="K28" t="s">
-        <v>207</v>
-      </c>
-      <c r="L28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="K29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
         <v>40</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>70</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>130</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>160</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>100</v>
-      </c>
-      <c r="G29" t="s">
-        <v>164</v>
-      </c>
-      <c r="I29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J29" t="s">
-        <v>176</v>
-      </c>
-      <c r="K29" t="s">
-        <v>208</v>
-      </c>
-      <c r="L29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" t="s">
-        <v>101</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
       </c>
+      <c r="H30" t="s">
+        <v>170</v>
+      </c>
       <c r="I30" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J30" t="s">
-        <v>180</v>
-      </c>
-      <c r="K30" t="s">
-        <v>209</v>
-      </c>
-      <c r="L30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" t="s">
         <v>162</v>
       </c>
-      <c r="F31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>164</v>
       </c>
       <c r="I31" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="J31" t="s">
-        <v>177</v>
-      </c>
-      <c r="K31" t="s">
-        <v>210</v>
-      </c>
-      <c r="L31">
+        <v>208</v>
+      </c>
+      <c r="K31">
         <v>10</v>
       </c>
     </row>
